--- a/PLDI-2012/formula_count.xlsx
+++ b/PLDI-2012/formula_count.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="spreadsheets_with_formulae_coun" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5299,10 +5299,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5325,5428 +5341,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>spreadsheets_with_formulae_coun!$B$1:$B$1758</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1758"/>
-                <c:pt idx="0">
-                  <c:v>26444.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24523.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23408.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20758.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18168.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13300.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13108.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10706.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10608.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10316.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9173.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9043.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8731.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8207.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8027.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5741.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5681.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5096.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4913.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4840.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4715.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4352.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4170.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4017.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3986.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3815.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3758.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3676.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3657.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3533.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3484.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3437.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3414.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3241.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3098.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2871.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2870.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2825.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2732.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2654.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2628.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2626.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2626.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2564.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2563.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2503.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2487.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2482.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2465.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2422.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2398.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2240.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2204.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2184.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2158.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2115.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2092.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2077.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2053.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1989.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1982.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1973.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1904.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1890.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1879.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1858.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1815.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1800.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1748.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1710.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1633.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1585.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1566.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1561.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1530.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1506.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1499.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1488.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1485.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1470.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1451.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1445.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1439.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1436.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1389.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1385.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1375.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1368.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1348.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1335.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1330.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1329.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1313.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1311.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1249.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1235.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1226.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1222.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1219.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1211.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1184.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1177.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1173.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1166.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1157.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1146.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1136.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1131.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1117.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1114.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1104.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1101.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1097.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1088.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1075.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1066.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1065.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1061.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1052.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1038.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1034.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1027.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1027.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1022.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1022.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1021.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1017.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1009.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1002.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1001.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1001.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>989.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>986.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>981.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>979.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>975.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>966.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>958.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>957.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>932.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>927.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>926.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>920.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>915.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>912.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>909.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>903.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>898.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>892.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>888.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>876.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>873.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>868.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>863.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>862.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>843.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>843.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>838.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>832.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>824.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>823.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>809.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>804.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>797.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>797.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>796.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>790.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>785.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>784.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>780.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>772.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>770.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>768.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>754.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>747.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>735.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>734.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>724.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>722.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>721.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>720.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>717.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>713.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>709.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>704.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>698.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>694.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>692.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>689.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>686.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>685.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>682.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>677.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>676.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>673.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>672.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>669.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>665.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>665.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>661.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>659.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>656.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>656.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>646.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>645.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>640.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>638.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>636.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>629.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>629.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>626.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>611.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>607.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>606.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>604.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>599.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>597.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>596.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>596.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>589.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>585.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>584.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>581.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>580.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>579.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>577.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>572.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>571.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>564.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>563.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>561.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>558.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>558.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>555.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>555.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>552.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>549.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>546.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>543.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>543.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>537.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>535.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>533.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>530.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>519.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>517.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>515.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>513.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>511.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>504.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>504.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>501.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>496.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>494.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>486.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>475.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>473.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>469.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>467.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>463.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>462.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>457.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>453.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>449.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>448.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>448.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>443.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>442.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>441.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>435.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>435.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>428.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>421.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>413.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>409.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>406.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>399.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>398.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>397.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>391.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>391.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>389.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>388.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>386.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>386.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>384.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>384.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>376.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>374.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>372.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>371.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>371.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>370.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>368.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>368.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>362.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>362.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>357.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>356.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>355.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>349.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>347.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>347.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>345.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>342.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>342.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>341.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>341.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>339.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>338.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>336.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>336.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>336.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>336.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>335.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>334.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>331.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>331.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>329.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>328.0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>326.0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>326.0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>325.0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>320.0</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>319.0</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>318.0</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>317.0</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>316.0</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>316.0</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>312.0</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>304.0</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>303.0</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>303.0</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>303.0</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>299.0</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>293.0</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>292.0</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>289.0</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>289.0</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>288.0</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>287.0</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>286.0</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>282.0</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>282.0</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>281.0</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>279.0</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>278.0</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>276.0</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>275.0</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>275.0</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>271.0</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>269.0</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>267.0</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>262.0</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>259.0</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>252.0</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>251.0</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>251.0</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>247.0</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>247.0</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>247.0</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>246.0</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>246.0</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>246.0</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>241.0</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>239.0</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>239.0</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>231.0</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>229.0</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>228.0</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>228.0</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>226.0</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>226.0</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>221.0</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>217.0</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>217.0</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>217.0</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>214.0</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>214.0</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>213.0</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>213.0</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>211.0</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>208.0</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>208.0</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>208.0</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>204.0</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>198.0</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>198.0</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>193.0</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>193.0</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>193.0</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>189.0</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>189.0</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>186.0</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>186.0</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>181.0</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>181.0</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>178.0</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>178.0</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>174.0</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>174.0</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>169.0</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>166.0</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>153.0</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>153.0</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="881">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="882">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="883">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="884">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="885">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="886">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="887">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="888">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="889">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="890">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="891">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="892">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="893">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="894">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="895">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="896">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="897">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="898">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="899">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="900">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="901">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="902">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="903">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="904">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="905">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="906">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="907">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="908">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="909">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="910">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="911">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="912">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="913">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="914">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="915">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="916">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="917">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="918">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="919">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="923">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1009">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1010">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1011">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1012">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1013">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1014">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1015">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1016">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1017">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1018">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1019">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1020">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1021">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1022">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1023">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1024">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1025">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1026">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1027">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1028">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1029">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="1030">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="1031">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="1032">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="1033">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="1034">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="1035">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="1036">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1037">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1038">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1039">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1040">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1041">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1042">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1043">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1044">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1045">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="1046">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1047">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1048">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1049">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1050">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1051">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1052">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1053">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1054">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1055">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1056">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1057">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1058">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1059">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1060">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1061">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1062">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1107">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1108">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1109">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1110">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1111">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1112">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1113">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1114">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1115">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1116">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1117">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1118">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1119">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1120">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1121">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1122">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1123">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1124">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1125">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1126">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1127">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1128">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1129">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="1130">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1131">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1132">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1133">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1134">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1135">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1136">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1137">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1138">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1139">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1140">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1141">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1142">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1143">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1144">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1145">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1146">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1147">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1148">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1149">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1150">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1151">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1152">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1153">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1154">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1155">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1156">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1157">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1158">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1159">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1160">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1161">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1162">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1163">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1164">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1165">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1166">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1167">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1168">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1169">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1170">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1171">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1172">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1173">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1174">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1175">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1176">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1177">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1178">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1179">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1180">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1181">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1182">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1183">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1184">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1185">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1186">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1187">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1188">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="1189">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="1190">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="1191">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="1192">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1193">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1194">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1195">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1196">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1197">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1198">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1199">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1200">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1201">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1202">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1203">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="1204">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1205">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1206">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1207">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1208">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1209">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1210">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1211">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1212">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1213">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1214">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1215">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1216">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1217">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1218">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1219">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1220">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1221">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1222">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1223">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1224">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1225">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1226">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1227">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1228">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1229">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1230">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1231">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1232">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1233">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1234">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1235">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1236">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1237">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1238">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1239">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1240">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1243">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1244">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1245">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1246">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1247">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1248">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1249">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1250">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1251">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="1252">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1253">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1254">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1255">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1256">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1257">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1258">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1259">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1260">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1261">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1262">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1263">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1264">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1265">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1266">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1267">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1268">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1269">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1270">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1271">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1272">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1273">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1274">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1275">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1276">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1277">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1278">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1279">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1280">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1281">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1282">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1283">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1284">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1285">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1286">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1287">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1288">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1289">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1290">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1291">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1292">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1293">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1294">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1295">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1296">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1297">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1298">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1299">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1300">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1301">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1302">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1303">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1304">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1305">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1306">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1307">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1308">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1309">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1310">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1311">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1312">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1313">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1314">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1315">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1316">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1317">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1318">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1319">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1320">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1321">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1322">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1323">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1324">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1325">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1326">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1327">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1328">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1329">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1330">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="1331">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1332">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1333">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1334">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1335">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1336">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1337">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1338">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1339">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1340">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1341">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1342">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1343">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1344">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1345">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1346">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1347">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1348">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1349">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1350">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1351">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1352">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1353">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1354">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1355">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1356">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1357">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1358">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1359">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1360">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1361">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1362">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1363">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1364">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1365">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1366">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1367">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1368">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1369">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1370">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1371">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1372">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1373">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1374">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1375">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1376">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1377">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1378">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1379">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1380">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1381">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1382">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1383">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1384">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1385">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1386">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1387">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1388">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1389">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1390">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1391">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1392">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1393">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1394">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1395">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1396">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1397">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1398">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1399">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1400">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1401">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1402">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1403">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1404">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1405">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1406">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1407">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1408">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1409">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1410">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1411">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1412">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1413">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1414">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1415">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1416">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1417">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1418">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1419">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1420">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1421">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1422">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1423">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1424">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1425">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1426">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1427">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1428">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="1429">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1430">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1431">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1432">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1433">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1434">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1435">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1436">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1437">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1438">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1439">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1440">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1441">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1442">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1443">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1444">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1445">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1446">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1447">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1448">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1449">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1450">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1451">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1452">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1453">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1454">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1455">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1456">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1457">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1458">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1459">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1460">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1461">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1462">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1463">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1464">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1465">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1466">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1467">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1468">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1469">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1470">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1471">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1472">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1473">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1474">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1475">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1476">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1477">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1478">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1479">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1480">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1481">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1482">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1483">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1484">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1485">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1486">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1487">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1488">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1489">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1490">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1491">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1492">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1493">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1494">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1495">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1496">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1497">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1498">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1499">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1500">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1501">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1502">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1503">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1504">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1505">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1506">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1507">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1508">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1509">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1510">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1511">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1512">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1513">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1514">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1515">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1516">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1517">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1518">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1519">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1520">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1521">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1522">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1523">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1524">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1525">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1526">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1527">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1528">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1529">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1530">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1531">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1532">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1533">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1534">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1535">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1536">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1537">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1538">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1539">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1540">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1541">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1542">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1543">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1544">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1545">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1546">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1547">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1548">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1549">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1550">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1551">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1552">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1553">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1554">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1555">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1556">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1557">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1558">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1559">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1560">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1561">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1562">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1563">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1564">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1565">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1566">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1567">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1568">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1569">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1570">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1571">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1572">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1573">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1574">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1575">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1576">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1577">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1578">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1579">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1580">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1581">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1582">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1583">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1584">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1585">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1586">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1587">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1588">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1589">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1590">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1591">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1592">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1593">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1594">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1595">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1596">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1597">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1598">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1599">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1600">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1601">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1602">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1603">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1604">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1605">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1606">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1607">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1608">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1609">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1610">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1611">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1612">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1613">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1614">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1615">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1616">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1617">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1618">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1619">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1620">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1621">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1622">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1623">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1624">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1625">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1626">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1627">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1628">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1629">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1630">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1631">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1632">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1633">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1634">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1635">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1636">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1637">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1638">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1639">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1640">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1641">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1642">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1643">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1644">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1645">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1646">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1647">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1648">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1649">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1650">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1651">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1652">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1653">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1654">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1655">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1656">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1657">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1658">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1659">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1660">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1661">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1662">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1663">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1664">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1665">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1666">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1667">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1668">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1669">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1670">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1671">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1672">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1673">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1674">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1675">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1676">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1677">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1678">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1679">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1680">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1681">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1682">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1683">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1684">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1685">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1686">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1687">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1688">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1689">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1690">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1691">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1692">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1693">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1694">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1695">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1696">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1697">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1698">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1699">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1700">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1701">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1702">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1703">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1704">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1705">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1706">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1707">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1708">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1709">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1710">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1711">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1712">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1713">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1714">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1715">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1716">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1717">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1718">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1719">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1720">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1721">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1722">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1723">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1724">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1725">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1726">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1727">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1728">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1729">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1730">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1731">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1732">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1733">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1734">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1735">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1736">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1737">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1738">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1739">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1740">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1741">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1742">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1743">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1744">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1745">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1746">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1747">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1748">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1749">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1750">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1751">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1752">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1753">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1754">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1755">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1756">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1757">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2133398152"/>
-        <c:axId val="2133406312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2133398152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133406312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2133406312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133398152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11071,258 +5697,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1758"/>
+  <dimension ref="A1:F1758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="172.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>246</v>
       </c>
       <c r="B1">
         <v>26444</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1">
+        <f ca="1">RANDBETWEEN(1,COUNTA($A$1:$A$1758))</f>
+        <v>476</v>
+      </c>
+      <c r="E1" t="str">
+        <f ca="1">INDEX($A$1:$A$1759,D1)</f>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\mls-reason-qtr.xls</v>
+      </c>
+      <c r="F1">
+        <f ca="1">INDEX($B$1:$B$1759,D1)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>182</v>
       </c>
       <c r="B2">
         <v>24523</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <f t="shared" ref="D2:D29" ca="1" si="0">RANDBETWEEN(1,COUNTA($A$1:$A$1758))</f>
+        <v>68</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E29" ca="1" si="1">INDEX($A$1:$A$1759,D2)</f>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\grades\processed\Agenda%20Item%209%20A#A8B4D.xls</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F29" ca="1" si="2">INDEX($B$1:$B$1759,D2)</f>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>237</v>
       </c>
       <c r="B3">
         <v>23408</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\Markov_model_0203.xls</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="2"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1412</v>
       </c>
       <c r="B4">
         <v>20758</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>986</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\cleancoal.xls</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>1595</v>
       </c>
       <c r="B5">
         <v>18168</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\Nsfcam%20Upgrade%20Es#A7E18.xls</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>270</v>
       </c>
       <c r="B6">
         <v>13300</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\ch12_fig12.2_workings.xls</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>111</v>
       </c>
       <c r="B7">
         <v>13108</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>524</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\3763250_Q304_factsheet.xls</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8">
         <v>10706</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1355</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\ccmigration_09186a008#A7CCD.xls</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>1331</v>
       </c>
       <c r="B9">
         <v>10608</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1098</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\lstacumrpt.xls</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>259</v>
       </c>
       <c r="B10">
         <v>10316</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1595</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\ceirc-database-entry.xls</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>1422</v>
       </c>
       <c r="B11">
         <v>9173</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\1999-2001.xls</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>163</v>
       </c>
       <c r="B12">
         <v>9043</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>736</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\grades\processed\demogr.xls</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>233</v>
       </c>
       <c r="B13">
         <v>8731</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1624</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\G3.xls</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>1755</v>
       </c>
       <c r="B14">
         <v>8207</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>953</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\inventory\processed\Inventories.xls</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>227</v>
       </c>
       <c r="B15">
         <v>8027</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\GS_Spreadsheets.xls</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>1731</v>
       </c>
       <c r="B16">
         <v>5741</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\free-excel-tutorial.xls</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>1730</v>
       </c>
       <c r="B17">
         <v>5681</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\Ag%20Statistics,%20NUE_2003.xls</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>1633</v>
       </c>
       <c r="B18">
         <v>5096</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>614</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\586_2.xls</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
         <v>4913</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1366</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\grades\processed\chemical%20reagent%20grades.xls</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>1450</v>
       </c>
       <c r="B20">
         <v>4840</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>719</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\inventory\processed\cashfl%7E1.xls</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>236</v>
       </c>
       <c r="B21">
         <v>4715</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1741</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\inventory\processed\ResearchInventory.xls</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>1459</v>
       </c>
       <c r="B22">
         <v>4352</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1206</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\OWS_inkind_funding_Template.xls</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>373</v>
       </c>
       <c r="B23">
         <v>4170</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\IT_Schedule_Rates.xls</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>1612</v>
       </c>
       <c r="B24">
         <v>4017</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\homework\processed\nc03rlis.xls</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>1519</v>
       </c>
       <c r="B25">
         <v>3986</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1619</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\inventory\processed\barf-shopping.xls</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>642</v>
       </c>
       <c r="B26">
         <v>3815</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\monthly%20financial%2#A7B53.xls</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>1715</v>
       </c>
       <c r="B27">
         <v>3758</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>774</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\database\processed\budget2002.xls</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>403</v>
       </c>
       <c r="B28">
         <v>3676</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\financial\processed\hist_e.xls</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>1620</v>
       </c>
       <c r="B29">
         <v>3657</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\inventory\processed\Att7.xls</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <v>3533</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <f ca="1">RANDBETWEEN(1,COUNTA($A$1:$A$1758))</f>
+        <v>838</v>
+      </c>
+      <c r="E30" t="str">
+        <f ca="1">INDEX($A$1:$A$1759,D30)</f>
+        <v>C:\Users\dbarowy\Documents\Visual Studio 2010\Projects\datadebug\TestFiles\EUSES-Spreadsheet-Corpus-20110302\EUSES-Spreadsheet-Corpus\modeling\processed\ME_Checksheet_old.xls</v>
+      </c>
+      <c r="F30">
+        <f ca="1">INDEX($B$1:$B$1759,D30)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>616</v>
       </c>
@@ -11330,7 +6318,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>1305</v>
       </c>
@@ -25147,11 +20135,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B1758">
-    <sortCondition descending="1" ref="B1:B1758"/>
+  <sortState ref="D75:E104">
+    <sortCondition ref="E75:E104"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
